--- a/Excel/UShellConfig.xlsx
+++ b/Excel/UShellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF971A-4EF1-49E7-B431-D68BE49C226F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82BAA7-34CF-40C1-89B1-0D419F4FC71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -509,9 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -523,21 +533,21 @@
     <col min="7" max="8" width="7.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="11" max="13" width="10.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -566,10 +576,13 @@
         <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,10 +609,13 @@
         <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -628,8 +644,11 @@
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -658,10 +677,13 @@
         <v>0.5</v>
       </c>
       <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -690,6 +712,9 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M7" s="4">
         <v>10</v>
       </c>
     </row>

--- a/Excel/UShellConfig.xlsx
+++ b/Excel/UShellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82BAA7-34CF-40C1-89B1-0D419F4FC71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB37F25-E62E-4EEB-A095-A11CB6697CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>手枪子弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>Gravity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shell_Bullet_Demo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,8 @@
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
     <col min="11" max="13" width="10.125" style="2" customWidth="1"/>
@@ -539,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -600,19 +601,19 @@
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -653,16 +654,16 @@
         <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
@@ -688,16 +689,16 @@
         <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>

--- a/Excel/UShellConfig.xlsx
+++ b/Excel/UShellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB37F25-E62E-4EEB-A095-A11CB6697CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E216B0-3B36-48BD-9ABD-B39120313EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Shell_Bullet_Demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'skills':[2001,2002,2003]}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -532,23 +544,24 @@
     <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="10.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="10.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -568,22 +581,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -601,22 +617,25 @@
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -637,10 +656,10 @@
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -648,8 +667,11 @@
       <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -669,22 +691,25 @@
         <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -704,18 +729,21 @@
         <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
     </row>
